--- a/KetQuaTest_OrderDetailDao.xlsx
+++ b/KetQuaTest_OrderDetailDao.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -35,40 +35,84 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>IT_OD_05</t>
+  </si>
+  <si>
+    <t>Xóa tất cả chi tiết theo OrderID</t>
+  </si>
+  <si>
+    <t>Order=1150</t>
+  </si>
+  <si>
+    <t>1. Add items
+2. deleteDetailsByOrderId
+3. Check list</t>
+  </si>
+  <si>
+    <t>List size = 0</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>IT_OD_06</t>
+  </si>
+  <si>
+    <t>Lấy OrderID không tồn tại</t>
+  </si>
+  <si>
+    <t>ID Rác</t>
+  </si>
+  <si>
+    <t>getDetailsByOrderId(99999999)</t>
+  </si>
+  <si>
+    <t>Trả về List rỗng (Ko null, ko crash)</t>
+  </si>
+  <si>
+    <t>IT_OD_02</t>
+  </si>
+  <si>
+    <t>Update số lượng</t>
+  </si>
+  <si>
+    <t>Qty=99</t>
+  </si>
+  <si>
+    <t>Update item đầu tiên thành qty=99</t>
+  </si>
+  <si>
+    <t>Qty DB = 99</t>
+  </si>
+  <si>
     <t>IT_OD_03</t>
   </si>
   <si>
-    <t>Update số lượng</t>
-  </si>
-  <si>
-    <t>Update item đầu tiên thành qty=99</t>
-  </si>
-  <si>
-    <t>Qty=99</t>
-  </si>
-  <si>
-    <t>Qty DB = 99</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>Xóa 1 chi tiết</t>
+  </si>
+  <si>
+    <t>Delete ID</t>
+  </si>
+  <si>
+    <t>Thêm item nháp -&gt; Xóa -&gt; Find lại</t>
+  </si>
+  <si>
+    <t>Get trả về null</t>
   </si>
   <si>
     <t>IT_OD_04</t>
   </si>
   <si>
-    <t>Xóa chi tiết</t>
-  </si>
-  <si>
-    <t>Thêm item nháp rồi xóa</t>
-  </si>
-  <si>
-    <t>Delete ID</t>
-  </si>
-  <si>
-    <t>Get trả về null</t>
+    <t>Kiểm tra JOIN Product Name</t>
+  </si>
+  <si>
+    <t>Lấy detail bất kỳ -&gt; check field productName</t>
+  </si>
+  <si>
+    <t>ProductName != null</t>
   </si>
   <si>
     <t>IT_OD_01</t>
@@ -77,14 +121,11 @@
     <t>Thêm và Kiểm tra tồn tại</t>
   </si>
   <si>
-    <t>1. addDetail() với OrderID có thật
+    <t>1. addDetail()
 2. Check list</t>
   </si>
   <si>
-    <t>Order=122</t>
-  </si>
-  <si>
-    <t>List chứa item vừa thêm</t>
+    <t>List size &gt; 0</t>
   </si>
 </sst>
 </file>
@@ -162,17 +203,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.89453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.05859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="32.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.71875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.73046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.8515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="40.6875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.08203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -269,6 +310,75 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
